--- a/data/LongDocURL/reference_qa.xlsx
+++ b/data/LongDocURL/reference_qa.xlsx
@@ -19,7 +19,7 @@
     <t>doc_id</t>
   </si>
   <si>
-    <t>question</t>
+    <t>reference_answer</t>
   </si>
   <si>
     <t>answer</t>
